--- a/Code/Results/Cases/Case_3_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9936830698447986</v>
+        <v>1.0253537328125</v>
       </c>
       <c r="D2">
-        <v>1.016117900240934</v>
+        <v>1.033949085430784</v>
       </c>
       <c r="E2">
-        <v>1.001007201525271</v>
+        <v>1.02572052766284</v>
       </c>
       <c r="F2">
-        <v>1.016619846690514</v>
+        <v>1.042551370869524</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044696027171563</v>
+        <v>1.031964981092079</v>
       </c>
       <c r="J2">
-        <v>1.016054374889768</v>
+        <v>1.030523225886379</v>
       </c>
       <c r="K2">
-        <v>1.027357162711571</v>
+        <v>1.03674996485774</v>
       </c>
       <c r="L2">
-        <v>1.012452522242859</v>
+        <v>1.028545272226384</v>
       </c>
       <c r="M2">
-        <v>1.027852396376076</v>
+        <v>1.045327738519362</v>
       </c>
       <c r="N2">
-        <v>1.01749728864517</v>
+        <v>1.031986687069813</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9983255944144753</v>
+        <v>1.026326344641302</v>
       </c>
       <c r="D3">
-        <v>1.019677882239781</v>
+        <v>1.034704128189619</v>
       </c>
       <c r="E3">
-        <v>1.004710639433883</v>
+        <v>1.026546260452082</v>
       </c>
       <c r="F3">
-        <v>1.0211113877513</v>
+        <v>1.043541893128195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046005706604468</v>
+        <v>1.032145954726745</v>
       </c>
       <c r="J3">
-        <v>1.018862009725815</v>
+        <v>1.031135016161285</v>
       </c>
       <c r="K3">
-        <v>1.030065022866467</v>
+        <v>1.037314238114099</v>
       </c>
       <c r="L3">
-        <v>1.015283599492119</v>
+        <v>1.029178317863239</v>
       </c>
       <c r="M3">
-        <v>1.031481086518826</v>
+        <v>1.046128644787433</v>
       </c>
       <c r="N3">
-        <v>1.020308910644731</v>
+        <v>1.032599346157073</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001265643995723</v>
+        <v>1.026955886464339</v>
       </c>
       <c r="D4">
-        <v>1.021932546199478</v>
+        <v>1.035192455085987</v>
       </c>
       <c r="E4">
-        <v>1.007062246301717</v>
+        <v>1.027081130378522</v>
       </c>
       <c r="F4">
-        <v>1.023959196729388</v>
+        <v>1.044183097746271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046819813057329</v>
+        <v>1.032261183157837</v>
       </c>
       <c r="J4">
-        <v>1.020637029786898</v>
+        <v>1.031530499557018</v>
       </c>
       <c r="K4">
-        <v>1.031773279443801</v>
+        <v>1.03767846369907</v>
       </c>
       <c r="L4">
-        <v>1.017076176994103</v>
+        <v>1.029587861217564</v>
       </c>
       <c r="M4">
-        <v>1.033776805688981</v>
+        <v>1.046646542859849</v>
       </c>
       <c r="N4">
-        <v>1.022086451437899</v>
+        <v>1.032995391184591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002486883206148</v>
+        <v>1.027220592354674</v>
       </c>
       <c r="D5">
-        <v>1.022869069763143</v>
+        <v>1.03539768993415</v>
       </c>
       <c r="E5">
-        <v>1.00804051460425</v>
+        <v>1.027306123981297</v>
       </c>
       <c r="F5">
-        <v>1.025142887083525</v>
+        <v>1.044452723841226</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04715424950435</v>
+        <v>1.032309175998512</v>
       </c>
       <c r="J5">
-        <v>1.021373576720258</v>
+        <v>1.031696667614772</v>
       </c>
       <c r="K5">
-        <v>1.03248122008356</v>
+        <v>1.037831368463583</v>
       </c>
       <c r="L5">
-        <v>1.017820666025198</v>
+        <v>1.029760013354575</v>
       </c>
       <c r="M5">
-        <v>1.034729804579128</v>
+        <v>1.046864184351187</v>
       </c>
       <c r="N5">
-        <v>1.022824044352387</v>
+        <v>1.033161795220047</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002691084926686</v>
+        <v>1.027265040347121</v>
       </c>
       <c r="D6">
-        <v>1.023025661651695</v>
+        <v>1.035432146344481</v>
       </c>
       <c r="E6">
-        <v>1.008204173793836</v>
+        <v>1.027343909239191</v>
       </c>
       <c r="F6">
-        <v>1.025340854109636</v>
+        <v>1.044497998951336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04720994937503</v>
+        <v>1.032317207847964</v>
       </c>
       <c r="J6">
-        <v>1.021496687857676</v>
+        <v>1.031724562476602</v>
       </c>
       <c r="K6">
-        <v>1.032599496167397</v>
+        <v>1.037857029171808</v>
       </c>
       <c r="L6">
-        <v>1.017945143267641</v>
+        <v>1.029788917264631</v>
       </c>
       <c r="M6">
-        <v>1.034889117611783</v>
+        <v>1.046900722426609</v>
       </c>
       <c r="N6">
-        <v>1.022947330321741</v>
+        <v>1.03318972969578</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001282019523629</v>
+        <v>1.026959423295459</v>
       </c>
       <c r="D7">
-        <v>1.021945104149567</v>
+        <v>1.035195197672652</v>
       </c>
       <c r="E7">
-        <v>1.007075358151755</v>
+        <v>1.027084136227818</v>
       </c>
       <c r="F7">
-        <v>1.023975065796329</v>
+        <v>1.044186700254523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046824312299582</v>
+        <v>1.03226182620636</v>
       </c>
       <c r="J7">
-        <v>1.020646909161974</v>
+        <v>1.031532720269809</v>
       </c>
       <c r="K7">
-        <v>1.03178277871263</v>
+        <v>1.037680507668655</v>
       </c>
       <c r="L7">
-        <v>1.017086160301609</v>
+        <v>1.029590161602079</v>
       </c>
       <c r="M7">
-        <v>1.03378958682581</v>
+        <v>1.046649451322981</v>
       </c>
       <c r="N7">
-        <v>1.022096344842821</v>
+        <v>1.032997615051049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9952656244644768</v>
+        <v>1.025682390374104</v>
       </c>
       <c r="D8">
-        <v>1.017331360283326</v>
+        <v>1.034204303854124</v>
       </c>
       <c r="E8">
-        <v>1.00226829316779</v>
+        <v>1.025999470142763</v>
       </c>
       <c r="F8">
-        <v>1.018150198118912</v>
+        <v>1.042886065850981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045145648047429</v>
+        <v>1.03202652953652</v>
       </c>
       <c r="J8">
-        <v>1.017012057960431</v>
+        <v>1.03073006268396</v>
       </c>
       <c r="K8">
-        <v>1.028281575355377</v>
+        <v>1.036940848800624</v>
       </c>
       <c r="L8">
-        <v>1.013417626398792</v>
+        <v>1.028759228911419</v>
       </c>
       <c r="M8">
-        <v>1.029089800338751</v>
+        <v>1.04559847870959</v>
       </c>
       <c r="N8">
-        <v>1.018456331735649</v>
+        <v>1.032193817599361</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9841473538379196</v>
+        <v>1.023433631247175</v>
       </c>
       <c r="D9">
-        <v>1.008809559879252</v>
+        <v>1.032456466220865</v>
       </c>
       <c r="E9">
-        <v>0.9934371847021392</v>
+        <v>1.024092530804401</v>
       </c>
       <c r="F9">
-        <v>1.00741493709884</v>
+        <v>1.040596300629568</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041924177603195</v>
+        <v>1.031597585252105</v>
       </c>
       <c r="J9">
-        <v>1.010272603050989</v>
+        <v>1.029312757289944</v>
       </c>
       <c r="K9">
-        <v>1.02176130697583</v>
+        <v>1.035630646957431</v>
       </c>
       <c r="L9">
-        <v>1.006637644045146</v>
+        <v>1.027294447914076</v>
       </c>
       <c r="M9">
-        <v>1.020388846839464</v>
+        <v>1.043743957225586</v>
       </c>
       <c r="N9">
-        <v>1.011707306027208</v>
+        <v>1.030774499469119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9763479701135115</v>
+        <v>1.021935526376189</v>
       </c>
       <c r="D10">
-        <v>1.002838965803546</v>
+        <v>1.031290130720696</v>
       </c>
       <c r="E10">
-        <v>0.9872812071168009</v>
+        <v>1.022824248196453</v>
       </c>
       <c r="F10">
-        <v>0.9999071617743539</v>
+        <v>1.039071276551899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039587298006036</v>
+        <v>1.031302030402584</v>
       </c>
       <c r="J10">
-        <v>1.005532470968564</v>
+        <v>1.02836596908024</v>
       </c>
       <c r="K10">
-        <v>1.01715715033879</v>
+        <v>1.034752641936933</v>
       </c>
       <c r="L10">
-        <v>1.001883964306549</v>
+        <v>1.026317592268516</v>
       </c>
       <c r="M10">
-        <v>1.014278092646363</v>
+        <v>1.042505937587393</v>
       </c>
       <c r="N10">
-        <v>1.006960442413526</v>
+        <v>1.02982636671156</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728691884242545</v>
+        <v>1.021287090377803</v>
       </c>
       <c r="D11">
-        <v>1.000178684098463</v>
+        <v>1.030784845525207</v>
       </c>
       <c r="E11">
-        <v>0.984545533991425</v>
+        <v>1.02227579506747</v>
       </c>
       <c r="F11">
-        <v>0.9965646659485541</v>
+        <v>1.038411289068446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038527564875422</v>
+        <v>1.031171784270239</v>
       </c>
       <c r="J11">
-        <v>1.0034158791063</v>
+        <v>1.027955553534696</v>
       </c>
       <c r="K11">
-        <v>1.015097231485635</v>
+        <v>1.034371390812312</v>
       </c>
       <c r="L11">
-        <v>0.9997649049472218</v>
+        <v>1.025894533501888</v>
       </c>
       <c r="M11">
-        <v>1.011551659736009</v>
+        <v>1.041969476531493</v>
       </c>
       <c r="N11">
-        <v>1.004840844748041</v>
+        <v>1.029415368328865</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9715608496611864</v>
+        <v>1.021046270879901</v>
       </c>
       <c r="D12">
-        <v>0.9991786907735332</v>
+        <v>1.030597123008096</v>
       </c>
       <c r="E12">
-        <v>0.9835182652529268</v>
+        <v>1.022072184592828</v>
       </c>
       <c r="F12">
-        <v>0.9953085882439433</v>
+        <v>1.038166195033697</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038126470330275</v>
+        <v>1.031123064723906</v>
       </c>
       <c r="J12">
-        <v>1.002619552005277</v>
+        <v>1.02780303999635</v>
       </c>
       <c r="K12">
-        <v>1.014321642705578</v>
+        <v>1.03422961735519</v>
       </c>
       <c r="L12">
-        <v>0.9989681911804137</v>
+        <v>1.025737380302213</v>
       </c>
       <c r="M12">
-        <v>1.010526223629539</v>
+        <v>1.041770153228356</v>
       </c>
       <c r="N12">
-        <v>1.004043386771194</v>
+        <v>1.029262638203801</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9718422394487622</v>
+        <v>1.021097925730119</v>
       </c>
       <c r="D13">
-        <v>0.9993937386131975</v>
+        <v>1.03063739178646</v>
       </c>
       <c r="E13">
-        <v>0.9837391308869191</v>
+        <v>1.022115854762149</v>
       </c>
       <c r="F13">
-        <v>0.9955786914377117</v>
+        <v>1.038218766046073</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038212848782723</v>
+        <v>1.031133530624039</v>
       </c>
       <c r="J13">
-        <v>1.002790833787179</v>
+        <v>1.027835757685981</v>
       </c>
       <c r="K13">
-        <v>1.014488489871844</v>
+        <v>1.034260035461915</v>
       </c>
       <c r="L13">
-        <v>0.9991395315974074</v>
+        <v>1.025771090652709</v>
       </c>
       <c r="M13">
-        <v>1.010746769321555</v>
+        <v>1.041812911354302</v>
       </c>
       <c r="N13">
-        <v>1.004214911792873</v>
+        <v>1.029295402356304</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.972761375930589</v>
+        <v>1.021267183374928</v>
       </c>
       <c r="D14">
-        <v>1.000096269512556</v>
+        <v>1.030769329073844</v>
       </c>
       <c r="E14">
-        <v>0.9844608499837886</v>
+        <v>1.022258962323727</v>
       </c>
       <c r="F14">
-        <v>0.9964611391317992</v>
+        <v>1.038391028397879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038494564161851</v>
+        <v>1.03116776403689</v>
       </c>
       <c r="J14">
-        <v>1.00335026416063</v>
+        <v>1.027942948079509</v>
       </c>
       <c r="K14">
-        <v>1.015033337037804</v>
+        <v>1.034359675029591</v>
       </c>
       <c r="L14">
-        <v>0.9996992471129154</v>
+        <v>1.025881543375901</v>
       </c>
       <c r="M14">
-        <v>1.011467160124419</v>
+        <v>1.041953001578782</v>
       </c>
       <c r="N14">
-        <v>1.004775136621623</v>
+        <v>1.029402744972486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9733255162305647</v>
+        <v>1.02137147371161</v>
       </c>
       <c r="D15">
-        <v>1.000527534123089</v>
+        <v>1.030850615107979</v>
       </c>
       <c r="E15">
-        <v>0.9849040334309487</v>
+        <v>1.02234715014762</v>
       </c>
       <c r="F15">
-        <v>0.9970028955643627</v>
+        <v>1.038497172194152</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038667140924837</v>
+        <v>1.031188811291204</v>
       </c>
       <c r="J15">
-        <v>1.003693589601809</v>
+        <v>1.028008982769877</v>
       </c>
       <c r="K15">
-        <v>1.015367636455542</v>
+        <v>1.034421045103092</v>
       </c>
       <c r="L15">
-        <v>1.000042819058</v>
+        <v>1.025949595596809</v>
       </c>
       <c r="M15">
-        <v>1.011909311766959</v>
+        <v>1.042039308159024</v>
       </c>
       <c r="N15">
-        <v>1.005118949624307</v>
+        <v>1.029468873439688</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.976576629528992</v>
+        <v>1.021978566312791</v>
       </c>
       <c r="D16">
-        <v>1.003013891558625</v>
+        <v>1.031323659572528</v>
       </c>
       <c r="E16">
-        <v>0.9874612387682412</v>
+        <v>1.022860662515291</v>
       </c>
       <c r="F16">
-        <v>1.000126998513851</v>
+        <v>1.039115085368639</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039656597974662</v>
+        <v>1.031310626652502</v>
       </c>
       <c r="J16">
-        <v>1.005671549949819</v>
+        <v>1.028393197585136</v>
       </c>
       <c r="K16">
-        <v>1.017292423221026</v>
+        <v>1.034777921862197</v>
       </c>
       <c r="L16">
-        <v>1.002023280259029</v>
+        <v>1.026345667794595</v>
       </c>
       <c r="M16">
-        <v>1.01445728933811</v>
+        <v>1.042541532590298</v>
       </c>
       <c r="N16">
-        <v>1.007099718902887</v>
+        <v>1.029853633884056</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9785881517787005</v>
+        <v>1.022359447593961</v>
       </c>
       <c r="D17">
-        <v>1.004553046902211</v>
+        <v>1.031620320580333</v>
       </c>
       <c r="E17">
-        <v>0.9890461384511419</v>
+        <v>1.023182969176103</v>
       </c>
       <c r="F17">
-        <v>1.002061622907703</v>
+        <v>1.039502782474617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04026426073539</v>
+        <v>1.031386431140971</v>
       </c>
       <c r="J17">
-        <v>1.006894771692502</v>
+        <v>1.028634085388378</v>
       </c>
       <c r="K17">
-        <v>1.018481712910467</v>
+        <v>1.03500149555781</v>
       </c>
       <c r="L17">
-        <v>1.003248993714961</v>
+        <v>1.026594094188644</v>
       </c>
       <c r="M17">
-        <v>1.016033600709735</v>
+        <v>1.042856460806401</v>
       </c>
       <c r="N17">
-        <v>1.00832467776075</v>
+        <v>1.030094863775608</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797517003376649</v>
+        <v>1.022581633610689</v>
       </c>
       <c r="D18">
-        <v>1.005443617630584</v>
+        <v>1.031793333324649</v>
       </c>
       <c r="E18">
-        <v>0.989963862359643</v>
+        <v>1.023371034754814</v>
       </c>
       <c r="F18">
-        <v>1.00318127515526</v>
+        <v>1.03972895411841</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040614102953948</v>
+        <v>1.031430427661047</v>
       </c>
       <c r="J18">
-        <v>1.007602108982706</v>
+        <v>1.028774547704562</v>
       </c>
       <c r="K18">
-        <v>1.019169044084228</v>
+        <v>1.035131799099456</v>
       </c>
       <c r="L18">
-        <v>1.003958110917377</v>
+        <v>1.02673898992773</v>
       </c>
       <c r="M18">
-        <v>1.016945320665105</v>
+        <v>1.043040115382374</v>
       </c>
       <c r="N18">
-        <v>1.009033019551039</v>
+        <v>1.030235525564392</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9801468147870275</v>
+        <v>1.022657397427198</v>
       </c>
       <c r="D19">
-        <v>1.005746076254609</v>
+        <v>1.031852321992931</v>
       </c>
       <c r="E19">
-        <v>0.9902756596003156</v>
+        <v>1.023435172023881</v>
       </c>
       <c r="F19">
-        <v>1.003561580550483</v>
+        <v>1.039806078624809</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040732618332332</v>
+        <v>1.031445392182031</v>
       </c>
       <c r="J19">
-        <v>1.00784226471037</v>
+        <v>1.028822434331625</v>
       </c>
       <c r="K19">
-        <v>1.0194023413806</v>
+        <v>1.035176211708331</v>
       </c>
       <c r="L19">
-        <v>1.004198928378857</v>
+        <v>1.026788394390559</v>
       </c>
       <c r="M19">
-        <v>1.017254903352406</v>
+        <v>1.043102730421493</v>
       </c>
       <c r="N19">
-        <v>1.009273516327382</v>
+        <v>1.030283480195958</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9783733480527232</v>
+        <v>1.022318580109</v>
       </c>
       <c r="D20">
-        <v>1.004388658133086</v>
+        <v>1.031588494198517</v>
       </c>
       <c r="E20">
-        <v>0.9888767930354623</v>
+        <v>1.023148381519676</v>
       </c>
       <c r="F20">
-        <v>1.001854969691493</v>
+        <v>1.039461182671014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040199541695324</v>
+        <v>1.031378320680361</v>
       </c>
       <c r="J20">
-        <v>1.00676417093249</v>
+        <v>1.028608244897557</v>
       </c>
       <c r="K20">
-        <v>1.01835477475619</v>
+        <v>1.034977518885946</v>
       </c>
       <c r="L20">
-        <v>1.003118091708691</v>
+        <v>1.026567441124132</v>
       </c>
       <c r="M20">
-        <v>1.015865279927331</v>
+        <v>1.042822675884904</v>
       </c>
       <c r="N20">
-        <v>1.008193891532679</v>
+        <v>1.030068986588327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9724911669362845</v>
+        <v>1.021217340150681</v>
       </c>
       <c r="D21">
-        <v>0.9998897235734521</v>
+        <v>1.030730477846459</v>
       </c>
       <c r="E21">
-        <v>0.9842486335352197</v>
+        <v>1.022216817684497</v>
       </c>
       <c r="F21">
-        <v>0.9962016877092611</v>
+        <v>1.038340299911403</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03841181430536</v>
+        <v>1.031157692540545</v>
       </c>
       <c r="J21">
-        <v>1.003185809739453</v>
+        <v>1.027911385022468</v>
       </c>
       <c r="K21">
-        <v>1.014873185476953</v>
+        <v>1.034330338065501</v>
       </c>
       <c r="L21">
-        <v>0.9995346939340923</v>
+        <v>1.025849018081193</v>
       </c>
       <c r="M21">
-        <v>1.011255379369693</v>
+        <v>1.041911750087409</v>
       </c>
       <c r="N21">
-        <v>1.004610448656303</v>
+        <v>1.029371137092284</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9686987872765113</v>
+        <v>1.020525169872273</v>
       </c>
       <c r="D22">
-        <v>0.9969922065074037</v>
+        <v>1.030190794813912</v>
       </c>
       <c r="E22">
-        <v>0.9812740787207802</v>
+        <v>1.021631740202246</v>
       </c>
       <c r="F22">
-        <v>0.992562780765454</v>
+        <v>1.037635873375293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037244472906759</v>
+        <v>1.031017006075328</v>
       </c>
       <c r="J22">
-        <v>1.000877062533222</v>
+        <v>1.027472854651441</v>
       </c>
       <c r="K22">
-        <v>1.012623484788783</v>
+        <v>1.033922505560656</v>
       </c>
       <c r="L22">
-        <v>0.9972258565421989</v>
+        <v>1.025397257564076</v>
       </c>
       <c r="M22">
-        <v>1.008283024322195</v>
+        <v>1.041338681007732</v>
       </c>
       <c r="N22">
-        <v>1.002298422764223</v>
+        <v>1.02893198395783</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9707184303060833</v>
+        <v>1.020892081146435</v>
       </c>
       <c r="D23">
-        <v>0.9985349676592509</v>
+        <v>1.03047691093001</v>
       </c>
       <c r="E23">
-        <v>0.9828572816266949</v>
+        <v>1.021941840439839</v>
       </c>
       <c r="F23">
-        <v>0.9945001114718744</v>
+        <v>1.038009272863015</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037867506288894</v>
+        <v>1.031091773069857</v>
       </c>
       <c r="J23">
-        <v>1.002106732952986</v>
+        <v>1.027705364347796</v>
       </c>
       <c r="K23">
-        <v>1.013822017237356</v>
+        <v>1.034138792624331</v>
       </c>
       <c r="L23">
-        <v>0.9984552762606698</v>
+        <v>1.025636749744593</v>
       </c>
       <c r="M23">
-        <v>1.009865957101903</v>
+        <v>1.041642507128231</v>
       </c>
       <c r="N23">
-        <v>1.003529839457028</v>
+        <v>1.029164823844622</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9784704386387886</v>
+        <v>1.022337046290857</v>
       </c>
       <c r="D24">
-        <v>1.004462960526592</v>
+        <v>1.03160287524659</v>
       </c>
       <c r="E24">
-        <v>0.9889533336674883</v>
+        <v>1.023164009977955</v>
       </c>
       <c r="F24">
-        <v>1.001948374465949</v>
+        <v>1.039479979725092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040228799630321</v>
+        <v>1.031381986124955</v>
       </c>
       <c r="J24">
-        <v>1.006823202754443</v>
+        <v>1.028619921237377</v>
       </c>
       <c r="K24">
-        <v>1.018412152267345</v>
+        <v>1.034988353230833</v>
       </c>
       <c r="L24">
-        <v>1.003177258643236</v>
+        <v>1.026579484518913</v>
       </c>
       <c r="M24">
-        <v>1.015941360641573</v>
+        <v>1.042837941953251</v>
       </c>
       <c r="N24">
-        <v>1.00825300718659</v>
+        <v>1.030080679509889</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9870868493233297</v>
+        <v>1.024014803730177</v>
       </c>
       <c r="D25">
-        <v>1.011061647253433</v>
+        <v>1.032908524981772</v>
       </c>
       <c r="E25">
-        <v>0.99576554676546</v>
+        <v>1.024584994478614</v>
       </c>
       <c r="F25">
-        <v>1.010249467264418</v>
+        <v>1.041188002379321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042789419305684</v>
+        <v>1.031710170973399</v>
       </c>
       <c r="J25">
-        <v>1.012056746795054</v>
+        <v>1.029679506068031</v>
       </c>
       <c r="K25">
-        <v>1.02349063841352</v>
+        <v>1.03597016916267</v>
       </c>
       <c r="L25">
-        <v>1.008429954758365</v>
+        <v>1.027673191544059</v>
       </c>
       <c r="M25">
-        <v>1.022690730081779</v>
+        <v>1.044223694424629</v>
       </c>
       <c r="N25">
-        <v>1.013493983460034</v>
+        <v>1.031141769072538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0253537328125</v>
+        <v>0.9936830698447984</v>
       </c>
       <c r="D2">
-        <v>1.033949085430784</v>
+        <v>1.016117900240934</v>
       </c>
       <c r="E2">
-        <v>1.02572052766284</v>
+        <v>1.00100720152527</v>
       </c>
       <c r="F2">
-        <v>1.042551370869524</v>
+        <v>1.016619846690514</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031964981092079</v>
+        <v>1.044696027171563</v>
       </c>
       <c r="J2">
-        <v>1.030523225886379</v>
+        <v>1.016054374889768</v>
       </c>
       <c r="K2">
-        <v>1.03674996485774</v>
+        <v>1.027357162711571</v>
       </c>
       <c r="L2">
-        <v>1.028545272226384</v>
+        <v>1.012452522242858</v>
       </c>
       <c r="M2">
-        <v>1.045327738519362</v>
+        <v>1.027852396376076</v>
       </c>
       <c r="N2">
-        <v>1.031986687069813</v>
+        <v>1.01749728864517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026326344641302</v>
+        <v>0.9983255944144738</v>
       </c>
       <c r="D3">
-        <v>1.034704128189619</v>
+        <v>1.01967788223978</v>
       </c>
       <c r="E3">
-        <v>1.026546260452082</v>
+        <v>1.004710639433882</v>
       </c>
       <c r="F3">
-        <v>1.043541893128195</v>
+        <v>1.021111387751298</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032145954726745</v>
+        <v>1.046005706604467</v>
       </c>
       <c r="J3">
-        <v>1.031135016161285</v>
+        <v>1.018862009725813</v>
       </c>
       <c r="K3">
-        <v>1.037314238114099</v>
+        <v>1.030065022866466</v>
       </c>
       <c r="L3">
-        <v>1.029178317863239</v>
+        <v>1.015283599492118</v>
       </c>
       <c r="M3">
-        <v>1.046128644787433</v>
+        <v>1.031481086518824</v>
       </c>
       <c r="N3">
-        <v>1.032599346157073</v>
+        <v>1.02030891064473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026955886464339</v>
+        <v>1.001265643995723</v>
       </c>
       <c r="D4">
-        <v>1.035192455085987</v>
+        <v>1.021932546199479</v>
       </c>
       <c r="E4">
-        <v>1.027081130378522</v>
+        <v>1.007062246301717</v>
       </c>
       <c r="F4">
-        <v>1.044183097746271</v>
+        <v>1.023959196729388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032261183157837</v>
+        <v>1.04681981305733</v>
       </c>
       <c r="J4">
-        <v>1.031530499557018</v>
+        <v>1.020637029786898</v>
       </c>
       <c r="K4">
-        <v>1.03767846369907</v>
+        <v>1.031773279443802</v>
       </c>
       <c r="L4">
-        <v>1.029587861217564</v>
+        <v>1.017076176994103</v>
       </c>
       <c r="M4">
-        <v>1.046646542859849</v>
+        <v>1.033776805688981</v>
       </c>
       <c r="N4">
-        <v>1.032995391184591</v>
+        <v>1.022086451437899</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027220592354674</v>
+        <v>1.002486883206148</v>
       </c>
       <c r="D5">
-        <v>1.03539768993415</v>
+        <v>1.022869069763144</v>
       </c>
       <c r="E5">
-        <v>1.027306123981297</v>
+        <v>1.00804051460425</v>
       </c>
       <c r="F5">
-        <v>1.044452723841226</v>
+        <v>1.025142887083525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032309175998512</v>
+        <v>1.04715424950435</v>
       </c>
       <c r="J5">
-        <v>1.031696667614772</v>
+        <v>1.021373576720258</v>
       </c>
       <c r="K5">
-        <v>1.037831368463583</v>
+        <v>1.032481220083561</v>
       </c>
       <c r="L5">
-        <v>1.029760013354575</v>
+        <v>1.017820666025198</v>
       </c>
       <c r="M5">
-        <v>1.046864184351187</v>
+        <v>1.034729804579128</v>
       </c>
       <c r="N5">
-        <v>1.033161795220047</v>
+        <v>1.022824044352387</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027265040347121</v>
+        <v>1.002691084926686</v>
       </c>
       <c r="D6">
-        <v>1.035432146344481</v>
+        <v>1.023025661651695</v>
       </c>
       <c r="E6">
-        <v>1.027343909239191</v>
+        <v>1.008204173793836</v>
       </c>
       <c r="F6">
-        <v>1.044497998951336</v>
+        <v>1.025340854109636</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032317207847964</v>
+        <v>1.047209949375031</v>
       </c>
       <c r="J6">
-        <v>1.031724562476602</v>
+        <v>1.021496687857676</v>
       </c>
       <c r="K6">
-        <v>1.037857029171808</v>
+        <v>1.032599496167397</v>
       </c>
       <c r="L6">
-        <v>1.029788917264631</v>
+        <v>1.017945143267641</v>
       </c>
       <c r="M6">
-        <v>1.046900722426609</v>
+        <v>1.034889117611783</v>
       </c>
       <c r="N6">
-        <v>1.03318972969578</v>
+        <v>1.022947330321741</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026959423295459</v>
+        <v>1.001282019523629</v>
       </c>
       <c r="D7">
-        <v>1.035195197672652</v>
+        <v>1.021945104149567</v>
       </c>
       <c r="E7">
-        <v>1.027084136227818</v>
+        <v>1.007075358151755</v>
       </c>
       <c r="F7">
-        <v>1.044186700254523</v>
+        <v>1.023975065796329</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03226182620636</v>
+        <v>1.046824312299581</v>
       </c>
       <c r="J7">
-        <v>1.031532720269809</v>
+        <v>1.020646909161974</v>
       </c>
       <c r="K7">
-        <v>1.037680507668655</v>
+        <v>1.03178277871263</v>
       </c>
       <c r="L7">
-        <v>1.029590161602079</v>
+        <v>1.017086160301609</v>
       </c>
       <c r="M7">
-        <v>1.046649451322981</v>
+        <v>1.03378958682581</v>
       </c>
       <c r="N7">
-        <v>1.032997615051049</v>
+        <v>1.022096344842821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025682390374104</v>
+        <v>0.9952656244644759</v>
       </c>
       <c r="D8">
-        <v>1.034204303854124</v>
+        <v>1.017331360283325</v>
       </c>
       <c r="E8">
-        <v>1.025999470142763</v>
+        <v>1.00226829316779</v>
       </c>
       <c r="F8">
-        <v>1.042886065850981</v>
+        <v>1.018150198118912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03202652953652</v>
+        <v>1.045145648047429</v>
       </c>
       <c r="J8">
-        <v>1.03073006268396</v>
+        <v>1.01701205796043</v>
       </c>
       <c r="K8">
-        <v>1.036940848800624</v>
+        <v>1.028281575355377</v>
       </c>
       <c r="L8">
-        <v>1.028759228911419</v>
+        <v>1.013417626398791</v>
       </c>
       <c r="M8">
-        <v>1.04559847870959</v>
+        <v>1.029089800338751</v>
       </c>
       <c r="N8">
-        <v>1.032193817599361</v>
+        <v>1.018456331735648</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023433631247175</v>
+        <v>0.9841473538379195</v>
       </c>
       <c r="D9">
-        <v>1.032456466220865</v>
+        <v>1.008809559879253</v>
       </c>
       <c r="E9">
-        <v>1.024092530804401</v>
+        <v>0.993437184702139</v>
       </c>
       <c r="F9">
-        <v>1.040596300629568</v>
+        <v>1.007414937098841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031597585252105</v>
+        <v>1.041924177603195</v>
       </c>
       <c r="J9">
-        <v>1.029312757289944</v>
+        <v>1.010272603050989</v>
       </c>
       <c r="K9">
-        <v>1.035630646957431</v>
+        <v>1.02176130697583</v>
       </c>
       <c r="L9">
-        <v>1.027294447914076</v>
+        <v>1.006637644045146</v>
       </c>
       <c r="M9">
-        <v>1.043743957225586</v>
+        <v>1.020388846839465</v>
       </c>
       <c r="N9">
-        <v>1.030774499469119</v>
+        <v>1.011707306027208</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021935526376189</v>
+        <v>0.9763479701135107</v>
       </c>
       <c r="D10">
-        <v>1.031290130720696</v>
+        <v>1.002838965803545</v>
       </c>
       <c r="E10">
-        <v>1.022824248196453</v>
+        <v>0.9872812071167998</v>
       </c>
       <c r="F10">
-        <v>1.039071276551899</v>
+        <v>0.999907161774353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031302030402584</v>
+        <v>1.039587298006035</v>
       </c>
       <c r="J10">
-        <v>1.02836596908024</v>
+        <v>1.005532470968563</v>
       </c>
       <c r="K10">
-        <v>1.034752641936933</v>
+        <v>1.017157150338789</v>
       </c>
       <c r="L10">
-        <v>1.026317592268516</v>
+        <v>1.001883964306548</v>
       </c>
       <c r="M10">
-        <v>1.042505937587393</v>
+        <v>1.014278092646363</v>
       </c>
       <c r="N10">
-        <v>1.02982636671156</v>
+        <v>1.006960442413525</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021287090377803</v>
+        <v>0.9728691884242545</v>
       </c>
       <c r="D11">
-        <v>1.030784845525207</v>
+        <v>1.000178684098464</v>
       </c>
       <c r="E11">
-        <v>1.02227579506747</v>
+        <v>0.9845455339914253</v>
       </c>
       <c r="F11">
-        <v>1.038411289068446</v>
+        <v>0.9965646659485546</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031171784270239</v>
+        <v>1.038527564875422</v>
       </c>
       <c r="J11">
-        <v>1.027955553534696</v>
+        <v>1.0034158791063</v>
       </c>
       <c r="K11">
-        <v>1.034371390812312</v>
+        <v>1.015097231485635</v>
       </c>
       <c r="L11">
-        <v>1.025894533501888</v>
+        <v>0.9997649049472221</v>
       </c>
       <c r="M11">
-        <v>1.041969476531493</v>
+        <v>1.01155165973601</v>
       </c>
       <c r="N11">
-        <v>1.029415368328865</v>
+        <v>1.004840844748041</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021046270879901</v>
+        <v>0.9715608496611859</v>
       </c>
       <c r="D12">
-        <v>1.030597123008096</v>
+        <v>0.9991786907735329</v>
       </c>
       <c r="E12">
-        <v>1.022072184592828</v>
+        <v>0.9835182652529264</v>
       </c>
       <c r="F12">
-        <v>1.038166195033697</v>
+        <v>0.9953085882439433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031123064723906</v>
+        <v>1.038126470330275</v>
       </c>
       <c r="J12">
-        <v>1.02780303999635</v>
+        <v>1.002619552005276</v>
       </c>
       <c r="K12">
-        <v>1.03422961735519</v>
+        <v>1.014321642705577</v>
       </c>
       <c r="L12">
-        <v>1.025737380302213</v>
+        <v>0.9989681911804134</v>
       </c>
       <c r="M12">
-        <v>1.041770153228356</v>
+        <v>1.010526223629539</v>
       </c>
       <c r="N12">
-        <v>1.029262638203801</v>
+        <v>1.004043386771194</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021097925730119</v>
+        <v>0.9718422394487624</v>
       </c>
       <c r="D13">
-        <v>1.03063739178646</v>
+        <v>0.9993937386131976</v>
       </c>
       <c r="E13">
-        <v>1.022115854762149</v>
+        <v>0.9837391308869192</v>
       </c>
       <c r="F13">
-        <v>1.038218766046073</v>
+        <v>0.995578691437712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031133530624039</v>
+        <v>1.038212848782723</v>
       </c>
       <c r="J13">
-        <v>1.027835757685981</v>
+        <v>1.002790833787179</v>
       </c>
       <c r="K13">
-        <v>1.034260035461915</v>
+        <v>1.014488489871844</v>
       </c>
       <c r="L13">
-        <v>1.025771090652709</v>
+        <v>0.9991395315974073</v>
       </c>
       <c r="M13">
-        <v>1.041812911354302</v>
+        <v>1.010746769321555</v>
       </c>
       <c r="N13">
-        <v>1.029295402356304</v>
+        <v>1.004214911792873</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021267183374928</v>
+        <v>0.9727613759305895</v>
       </c>
       <c r="D14">
-        <v>1.030769329073844</v>
+        <v>1.000096269512556</v>
       </c>
       <c r="E14">
-        <v>1.022258962323727</v>
+        <v>0.9844608499837891</v>
       </c>
       <c r="F14">
-        <v>1.038391028397879</v>
+        <v>0.9964611391317995</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03116776403689</v>
+        <v>1.038494564161851</v>
       </c>
       <c r="J14">
-        <v>1.027942948079509</v>
+        <v>1.003350264160631</v>
       </c>
       <c r="K14">
-        <v>1.034359675029591</v>
+        <v>1.015033337037805</v>
       </c>
       <c r="L14">
-        <v>1.025881543375901</v>
+        <v>0.9996992471129158</v>
       </c>
       <c r="M14">
-        <v>1.041953001578782</v>
+        <v>1.011467160124419</v>
       </c>
       <c r="N14">
-        <v>1.029402744972486</v>
+        <v>1.004775136621623</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02137147371161</v>
+        <v>0.9733255162305631</v>
       </c>
       <c r="D15">
-        <v>1.030850615107979</v>
+        <v>1.000527534123087</v>
       </c>
       <c r="E15">
-        <v>1.02234715014762</v>
+        <v>0.9849040334309472</v>
       </c>
       <c r="F15">
-        <v>1.038497172194152</v>
+        <v>0.9970028955643609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031188811291204</v>
+        <v>1.038667140924836</v>
       </c>
       <c r="J15">
-        <v>1.028008982769877</v>
+        <v>1.003693589601807</v>
       </c>
       <c r="K15">
-        <v>1.034421045103092</v>
+        <v>1.01536763645554</v>
       </c>
       <c r="L15">
-        <v>1.025949595596809</v>
+        <v>1.000042819057998</v>
       </c>
       <c r="M15">
-        <v>1.042039308159024</v>
+        <v>1.011909311766958</v>
       </c>
       <c r="N15">
-        <v>1.029468873439688</v>
+        <v>1.005118949624305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021978566312791</v>
+        <v>0.976576629528992</v>
       </c>
       <c r="D16">
-        <v>1.031323659572528</v>
+        <v>1.003013891558625</v>
       </c>
       <c r="E16">
-        <v>1.022860662515291</v>
+        <v>0.9874612387682414</v>
       </c>
       <c r="F16">
-        <v>1.039115085368639</v>
+        <v>1.000126998513851</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031310626652502</v>
+        <v>1.039656597974662</v>
       </c>
       <c r="J16">
-        <v>1.028393197585136</v>
+        <v>1.005671549949819</v>
       </c>
       <c r="K16">
-        <v>1.034777921862197</v>
+        <v>1.017292423221026</v>
       </c>
       <c r="L16">
-        <v>1.026345667794595</v>
+        <v>1.002023280259029</v>
       </c>
       <c r="M16">
-        <v>1.042541532590298</v>
+        <v>1.01445728933811</v>
       </c>
       <c r="N16">
-        <v>1.029853633884056</v>
+        <v>1.007099718902887</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022359447593961</v>
+        <v>0.9785881517787</v>
       </c>
       <c r="D17">
-        <v>1.031620320580333</v>
+        <v>1.004553046902211</v>
       </c>
       <c r="E17">
-        <v>1.023182969176103</v>
+        <v>0.9890461384511416</v>
       </c>
       <c r="F17">
-        <v>1.039502782474617</v>
+        <v>1.002061622907703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031386431140971</v>
+        <v>1.04026426073539</v>
       </c>
       <c r="J17">
-        <v>1.028634085388378</v>
+        <v>1.006894771692502</v>
       </c>
       <c r="K17">
-        <v>1.03500149555781</v>
+        <v>1.018481712910467</v>
       </c>
       <c r="L17">
-        <v>1.026594094188644</v>
+        <v>1.00324899371496</v>
       </c>
       <c r="M17">
-        <v>1.042856460806401</v>
+        <v>1.016033600709734</v>
       </c>
       <c r="N17">
-        <v>1.030094863775608</v>
+        <v>1.00832467776075</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022581633610689</v>
+        <v>0.9797517003376657</v>
       </c>
       <c r="D18">
-        <v>1.031793333324649</v>
+        <v>1.005443617630584</v>
       </c>
       <c r="E18">
-        <v>1.023371034754814</v>
+        <v>0.9899638623596433</v>
       </c>
       <c r="F18">
-        <v>1.03972895411841</v>
+        <v>1.00318127515526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031430427661047</v>
+        <v>1.040614102953948</v>
       </c>
       <c r="J18">
-        <v>1.028774547704562</v>
+        <v>1.007602108982707</v>
       </c>
       <c r="K18">
-        <v>1.035131799099456</v>
+        <v>1.019169044084228</v>
       </c>
       <c r="L18">
-        <v>1.02673898992773</v>
+        <v>1.003958110917378</v>
       </c>
       <c r="M18">
-        <v>1.043040115382374</v>
+        <v>1.016945320665106</v>
       </c>
       <c r="N18">
-        <v>1.030235525564392</v>
+        <v>1.009033019551039</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022657397427198</v>
+        <v>0.9801468147870266</v>
       </c>
       <c r="D19">
-        <v>1.031852321992931</v>
+        <v>1.005746076254608</v>
       </c>
       <c r="E19">
-        <v>1.023435172023881</v>
+        <v>0.9902756596003145</v>
       </c>
       <c r="F19">
-        <v>1.039806078624809</v>
+        <v>1.003561580550482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031445392182031</v>
+        <v>1.040732618332332</v>
       </c>
       <c r="J19">
-        <v>1.028822434331625</v>
+        <v>1.007842264710368</v>
       </c>
       <c r="K19">
-        <v>1.035176211708331</v>
+        <v>1.019402341380599</v>
       </c>
       <c r="L19">
-        <v>1.026788394390559</v>
+        <v>1.004198928378856</v>
       </c>
       <c r="M19">
-        <v>1.043102730421493</v>
+        <v>1.017254903352405</v>
       </c>
       <c r="N19">
-        <v>1.030283480195958</v>
+        <v>1.009273516327381</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022318580109</v>
+        <v>0.9783733480527231</v>
       </c>
       <c r="D20">
-        <v>1.031588494198517</v>
+        <v>1.004388658133086</v>
       </c>
       <c r="E20">
-        <v>1.023148381519676</v>
+        <v>0.9888767930354622</v>
       </c>
       <c r="F20">
-        <v>1.039461182671014</v>
+        <v>1.001854969691493</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031378320680361</v>
+        <v>1.040199541695324</v>
       </c>
       <c r="J20">
-        <v>1.028608244897557</v>
+        <v>1.00676417093249</v>
       </c>
       <c r="K20">
-        <v>1.034977518885946</v>
+        <v>1.01835477475619</v>
       </c>
       <c r="L20">
-        <v>1.026567441124132</v>
+        <v>1.003118091708691</v>
       </c>
       <c r="M20">
-        <v>1.042822675884904</v>
+        <v>1.015865279927331</v>
       </c>
       <c r="N20">
-        <v>1.030068986588327</v>
+        <v>1.008193891532678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021217340150681</v>
+        <v>0.9724911669362842</v>
       </c>
       <c r="D21">
-        <v>1.030730477846459</v>
+        <v>0.9998897235734524</v>
       </c>
       <c r="E21">
-        <v>1.022216817684497</v>
+        <v>0.9842486335352195</v>
       </c>
       <c r="F21">
-        <v>1.038340299911403</v>
+        <v>0.9962016877092615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031157692540545</v>
+        <v>1.03841181430536</v>
       </c>
       <c r="J21">
-        <v>1.027911385022468</v>
+        <v>1.003185809739452</v>
       </c>
       <c r="K21">
-        <v>1.034330338065501</v>
+        <v>1.014873185476953</v>
       </c>
       <c r="L21">
-        <v>1.025849018081193</v>
+        <v>0.9995346939340921</v>
       </c>
       <c r="M21">
-        <v>1.041911750087409</v>
+        <v>1.011255379369693</v>
       </c>
       <c r="N21">
-        <v>1.029371137092284</v>
+        <v>1.004610448656303</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020525169872273</v>
+        <v>0.9686987872765114</v>
       </c>
       <c r="D22">
-        <v>1.030190794813912</v>
+        <v>0.9969922065074039</v>
       </c>
       <c r="E22">
-        <v>1.021631740202246</v>
+        <v>0.9812740787207802</v>
       </c>
       <c r="F22">
-        <v>1.037635873375293</v>
+        <v>0.9925627807654542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031017006075328</v>
+        <v>1.037244472906759</v>
       </c>
       <c r="J22">
-        <v>1.027472854651441</v>
+        <v>1.000877062533222</v>
       </c>
       <c r="K22">
-        <v>1.033922505560656</v>
+        <v>1.012623484788783</v>
       </c>
       <c r="L22">
-        <v>1.025397257564076</v>
+        <v>0.997225856542199</v>
       </c>
       <c r="M22">
-        <v>1.041338681007732</v>
+        <v>1.008283024322195</v>
       </c>
       <c r="N22">
-        <v>1.02893198395783</v>
+        <v>1.002298422764223</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020892081146435</v>
+        <v>0.9707184303060826</v>
       </c>
       <c r="D23">
-        <v>1.03047691093001</v>
+        <v>0.9985349676592504</v>
       </c>
       <c r="E23">
-        <v>1.021941840439839</v>
+        <v>0.9828572816266944</v>
       </c>
       <c r="F23">
-        <v>1.038009272863015</v>
+        <v>0.9945001114718734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031091773069857</v>
+        <v>1.037867506288894</v>
       </c>
       <c r="J23">
-        <v>1.027705364347796</v>
+        <v>1.002106732952986</v>
       </c>
       <c r="K23">
-        <v>1.034138792624331</v>
+        <v>1.013822017237356</v>
       </c>
       <c r="L23">
-        <v>1.025636749744593</v>
+        <v>0.9984552762606692</v>
       </c>
       <c r="M23">
-        <v>1.041642507128231</v>
+        <v>1.009865957101902</v>
       </c>
       <c r="N23">
-        <v>1.029164823844622</v>
+        <v>1.003529839457028</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022337046290857</v>
+        <v>0.9784704386387901</v>
       </c>
       <c r="D24">
-        <v>1.03160287524659</v>
+        <v>1.004462960526594</v>
       </c>
       <c r="E24">
-        <v>1.023164009977955</v>
+        <v>0.9889533336674895</v>
       </c>
       <c r="F24">
-        <v>1.039479979725092</v>
+        <v>1.001948374465951</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031381986124955</v>
+        <v>1.040228799630321</v>
       </c>
       <c r="J24">
-        <v>1.028619921237377</v>
+        <v>1.006823202754444</v>
       </c>
       <c r="K24">
-        <v>1.034988353230833</v>
+        <v>1.018412152267346</v>
       </c>
       <c r="L24">
-        <v>1.026579484518913</v>
+        <v>1.003177258643237</v>
       </c>
       <c r="M24">
-        <v>1.042837941953251</v>
+        <v>1.015941360641575</v>
       </c>
       <c r="N24">
-        <v>1.030080679509889</v>
+        <v>1.008253007186591</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024014803730177</v>
+        <v>0.9870868493233305</v>
       </c>
       <c r="D25">
-        <v>1.032908524981772</v>
+        <v>1.011061647253434</v>
       </c>
       <c r="E25">
-        <v>1.024584994478614</v>
+        <v>0.9957655467654604</v>
       </c>
       <c r="F25">
-        <v>1.041188002379321</v>
+        <v>1.010249467264419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031710170973399</v>
+        <v>1.042789419305684</v>
       </c>
       <c r="J25">
-        <v>1.029679506068031</v>
+        <v>1.012056746795055</v>
       </c>
       <c r="K25">
-        <v>1.03597016916267</v>
+        <v>1.02349063841352</v>
       </c>
       <c r="L25">
-        <v>1.027673191544059</v>
+        <v>1.008429954758366</v>
       </c>
       <c r="M25">
-        <v>1.044223694424629</v>
+        <v>1.02269073008178</v>
       </c>
       <c r="N25">
-        <v>1.031141769072538</v>
+        <v>1.013493983460035</v>
       </c>
     </row>
   </sheetData>
